--- a/Data/EUDA/Tampon/niveau_educ_jamais_traite.xlsx
+++ b/Data/EUDA/Tampon/niveau_educ_jamais_traite.xlsx
@@ -441,32 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Never went to school / never completed primary school (ISCED 0).jamais</t>
+          <t>Never went to school / never completed primary school (ISCED 0).jamais.lvl_educ</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Primary level of education (ISCED 1).jamais</t>
+          <t>Primary level of education (ISCED 1).jamais.lvl_educ</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Secondary level of education (ISCED 2 and ISCED 3).jamais</t>
+          <t>Secondary level of education (ISCED 2 and ISCED 3).jamais.lvl_educ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Higher education (ISCED 4 to ISCED 6).jamais</t>
+          <t>Higher education (ISCED 4 to ISCED 6).jamais.lvl_educ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing.jamais</t>
+          <t>Not known / missing.jamais.lvl_educ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Total.jamais</t>
+          <t>Total.jamais.lvl_educ</t>
         </is>
       </c>
     </row>
